--- a/routingpr/static/locations.xlsx
+++ b/routingpr/static/locations.xlsx
@@ -2,20 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deliveryapp-my.sharepoint.com/personal/hossein_deliveryapp_com/Documents/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hosseinsaneipour/Desktop/deliveryapp/routing/routingpr/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{03076C96-5E25-9744-8C4F-40DBB84C1DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1F41315-B628-0F45-B68B-A45881607152}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE5F644-D952-7A4D-98FD-D0353BC351FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2600" yWindow="760" windowWidth="27640" windowHeight="16940" xr2:uid="{C95D412D-E3C7-E643-8D76-E87BE200E600}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="16300" xr2:uid="{C95D412D-E3C7-E643-8D76-E87BE200E600}"/>
   </bookViews>
   <sheets>
     <sheet name="locations" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -567,7 +566,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/routingpr/static/locations.xlsx
+++ b/routingpr/static/locations.xlsx
@@ -2,20 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hosseinsaneipour/Desktop/deliveryapp/routing/routingpr/static/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deliveryapp-my.sharepoint.com/personal/hossein_deliveryapp_com/Documents/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE5F644-D952-7A4D-98FD-D0353BC351FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{03076C96-5E25-9744-8C4F-40DBB84C1DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E931EB7-087A-8948-B52B-4781A77E5C5B}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="16300" xr2:uid="{C95D412D-E3C7-E643-8D76-E87BE200E600}"/>
+    <workbookView xWindow="2600" yWindow="760" windowWidth="27640" windowHeight="16940" xr2:uid="{C95D412D-E3C7-E643-8D76-E87BE200E600}"/>
   </bookViews>
   <sheets>
     <sheet name="locations" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="32">
   <si>
     <t>Depot</t>
   </si>
@@ -116,6 +117,21 @@
   </si>
   <si>
     <t>StopPostcode</t>
+  </si>
+  <si>
+    <t>CollectionLat</t>
+  </si>
+  <si>
+    <t>CollectionLng</t>
+  </si>
+  <si>
+    <t>StopLat</t>
+  </si>
+  <si>
+    <t>StopLng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	51.559005</t>
   </si>
 </sst>
 </file>
@@ -563,188 +579,285 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441FBF8A-D3AD-3B49-8622-066E8D35B956}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="J5" sqref="A1:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.83203125" customWidth="1"/>
-    <col min="4" max="4" width="17.5" style="9" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" customWidth="1"/>
+    <col min="2" max="4" width="16.83203125" customWidth="1"/>
+    <col min="6" max="6" width="17.5" style="9" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="17.83203125" customWidth="1"/>
+    <col min="9" max="10" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="1">
+        <v>51.516997400000001</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-0.1088129</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6">
+      <c r="F2" s="6">
         <v>0.35416666666666669</v>
       </c>
-      <c r="E2" s="6">
-        <f>D2+TIME(0,30,0)</f>
+      <c r="G2" s="6">
+        <f>F2+TIME(0,30,0)</f>
         <v>0.375</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I2" s="1">
+        <v>51.504800000000003</v>
+      </c>
+      <c r="J2" s="1">
+        <v>-0.12659999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="1">
+        <v>51.516997400000001</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-0.1088129</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="6">
+      <c r="F3" s="6">
         <v>0.35416666666666669</v>
       </c>
-      <c r="E3" s="6">
-        <f t="shared" ref="E3:E18" si="0">D3+TIME(0,30,0)</f>
+      <c r="G3" s="6">
+        <f t="shared" ref="G3:G18" si="0">F3+TIME(0,30,0)</f>
         <v>0.375</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I3" s="1">
+        <v>51.519399999999997</v>
+      </c>
+      <c r="J3" s="1">
+        <v>-9.9099999999999994E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="1">
+        <v>51.516997400000001</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-0.1088129</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="6">
+      <c r="F4" s="6">
         <v>0.4375</v>
       </c>
-      <c r="E4" s="6">
+      <c r="G4" s="6">
         <f t="shared" si="0"/>
         <v>0.45833333333333331</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I4" s="1">
+        <v>51.507599999999996</v>
+      </c>
+      <c r="J4" s="1">
+        <v>-6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="1">
+        <v>51.516997400000001</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-0.1088129</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="6">
+      <c r="F5" s="6">
         <v>0.4375</v>
       </c>
-      <c r="E5" s="6">
+      <c r="G5" s="6">
         <f t="shared" si="0"/>
         <v>0.45833333333333331</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I5" s="1">
+        <v>51.527099999999997</v>
+      </c>
+      <c r="J5" s="1">
+        <v>-0.13589999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="1">
+        <v>51.516997400000001</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-0.1088129</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="6">
+      <c r="F6" s="6">
         <v>0.375</v>
       </c>
-      <c r="E6" s="6">
+      <c r="G6" s="6">
         <f t="shared" si="0"/>
         <v>0.39583333333333331</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I6" s="1">
+        <v>51.530999999999999</v>
+      </c>
+      <c r="J6" s="1">
+        <v>-0.128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="1">
+        <v>51.516997400000001</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-0.1088129</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="6">
+      <c r="F7" s="6">
         <v>0.4375</v>
       </c>
-      <c r="E7" s="6">
+      <c r="G7" s="6">
         <f t="shared" si="0"/>
         <v>0.45833333333333331</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I7" s="1">
+        <v>51.500300000000003</v>
+      </c>
+      <c r="J7" s="1">
+        <v>-7.7100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="1">
+        <v>51.516997400000001</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-0.1088129</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="6">
+      <c r="F8" s="6">
         <v>0.39583333333333331</v>
       </c>
-      <c r="E8" s="6">
+      <c r="G8" s="6">
         <f t="shared" si="0"/>
         <v>0.41666666666666663</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I8" s="1">
+        <v>51.563099999999999</v>
+      </c>
+      <c r="J8" s="1">
+        <v>-0.21429999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -752,20 +865,32 @@
         <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-0.17776110000000001</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="6">
+      <c r="F9" s="6">
         <v>0.4375</v>
       </c>
-      <c r="E9" s="6">
+      <c r="G9" s="6">
         <f t="shared" si="0"/>
         <v>0.45833333333333331</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I9" s="1">
+        <v>51.5627</v>
+      </c>
+      <c r="J9" s="1">
+        <v>-0.21440000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -773,20 +898,32 @@
         <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="1">
+        <v>-0.17776110000000001</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="6">
+      <c r="F10" s="6">
         <v>0.52083333333333337</v>
       </c>
-      <c r="E10" s="6">
+      <c r="G10" s="6">
         <f t="shared" si="0"/>
         <v>0.54166666666666674</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I10" s="1">
+        <v>51.521999999999998</v>
+      </c>
+      <c r="J10" s="1">
+        <v>-8.43E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -794,20 +931,32 @@
         <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-0.17776110000000001</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="6">
+      <c r="F11" s="6">
         <v>0.52083333333333337</v>
       </c>
-      <c r="E11" s="6">
+      <c r="G11" s="6">
         <f t="shared" si="0"/>
         <v>0.54166666666666674</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I11" s="1">
+        <v>51.573300000000003</v>
+      </c>
+      <c r="J11" s="1">
+        <v>-0.21870000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -815,20 +964,32 @@
         <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="1">
+        <v>-0.17776110000000001</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="6">
+      <c r="F12" s="6">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E12" s="6">
+      <c r="G12" s="6">
         <f t="shared" si="0"/>
         <v>0.47916666666666663</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I12" s="1">
+        <v>51.5336</v>
+      </c>
+      <c r="J12" s="1">
+        <v>-0.12590000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -836,20 +997,32 @@
         <v>20</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="1">
+        <v>-0.17776110000000001</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="6">
+      <c r="F13" s="6">
         <v>0.52083333333333337</v>
       </c>
-      <c r="E13" s="6">
+      <c r="G13" s="6">
         <f t="shared" si="0"/>
         <v>0.54166666666666674</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I13" s="1">
+        <v>55.952100000000002</v>
+      </c>
+      <c r="J13" s="1">
+        <v>-3.2018</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -857,101 +1030,161 @@
         <v>20</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="1">
+        <v>-0.17776110000000001</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="6">
+      <c r="F14" s="6">
         <v>0.52083333333333337</v>
       </c>
-      <c r="E14" s="6">
+      <c r="G14" s="6">
         <f t="shared" si="0"/>
         <v>0.54166666666666674</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I14" s="1">
+        <v>51.573300000000003</v>
+      </c>
+      <c r="J14" s="1">
+        <v>-0.21870000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="1">
+        <v>51.588750500000003</v>
+      </c>
+      <c r="D15" s="1">
+        <v>-4.1959010000000001</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="6">
+      <c r="F15" s="6">
         <v>0.5625</v>
       </c>
-      <c r="E15" s="6">
+      <c r="G15" s="6">
         <f t="shared" si="0"/>
         <v>0.58333333333333337</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I15" s="1">
+        <v>51.5687</v>
+      </c>
+      <c r="J15" s="1">
+        <v>-1.7868999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="1">
+        <v>51.588750500000003</v>
+      </c>
+      <c r="D16" s="1">
+        <v>-4.1959010000000001</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="6">
+      <c r="F16" s="6">
         <v>0.5625</v>
       </c>
-      <c r="E16" s="6">
+      <c r="G16" s="6">
         <f t="shared" si="0"/>
         <v>0.58333333333333337</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I16" s="1">
+        <v>51.514600000000002</v>
+      </c>
+      <c r="J16" s="1">
+        <v>-0.1449</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="1">
+        <v>51.588750500000003</v>
+      </c>
+      <c r="D17" s="1">
+        <v>-4.1959010000000001</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="6">
+      <c r="F17" s="6">
         <v>0.54166666666666663</v>
       </c>
-      <c r="E17" s="6">
+      <c r="G17" s="6">
         <f t="shared" si="0"/>
         <v>0.5625</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I17" s="1">
+        <v>51.520299999999999</v>
+      </c>
+      <c r="J17" s="1">
+        <v>-7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="1">
+        <v>51.588750500000003</v>
+      </c>
+      <c r="D18" s="1">
+        <v>-4.1959010000000001</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="6">
+      <c r="F18" s="6">
         <v>0.60416666666666663</v>
       </c>
-      <c r="E18" s="6">
+      <c r="G18" s="6">
         <f t="shared" si="0"/>
         <v>0.625</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="I18" s="1">
+        <v>51.504800000000003</v>
+      </c>
+      <c r="J18" s="1">
+        <v>-0.12659999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/routingpr/static/locations.xlsx
+++ b/routingpr/static/locations.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deliveryapp-my.sharepoint.com/personal/hossein_deliveryapp_com/Documents/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hosa/Desktop/deliverypp/optimised route/routingpr/routingpr/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{03076C96-5E25-9744-8C4F-40DBB84C1DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E931EB7-087A-8948-B52B-4781A77E5C5B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9C097B-F168-8B43-8A67-188CE5AF76F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2600" yWindow="760" windowWidth="27640" windowHeight="16940" xr2:uid="{C95D412D-E3C7-E643-8D76-E87BE200E600}"/>
   </bookViews>
   <sheets>
     <sheet name="locations" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -582,7 +582,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="A1:J18"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
